--- a/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.041309987626433</v>
+        <v>-2.429141332871217</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.280566702581623</v>
+        <v>-2.012442355807116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8997998031455157</v>
+        <v>1.39525771489112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.408456438336984</v>
+        <v>-3.190389574427335</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08678068425612526</v>
+        <v>-0.113853457705177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04217122954622704</v>
+        <v>-0.03877114734546446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01654383860484785</v>
+        <v>0.03169119514748565</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1469895178645691</v>
+        <v>-0.1358037617109516</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.2879737318924</v>
+        <v>12.21153782987197</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.20135386353806</v>
+        <v>15.35549929042904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.44048570087022</v>
+        <v>18.22018668058449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.38618722100575</v>
+        <v>8.321548747908494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6531917106692902</v>
+        <v>0.6272056445206179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3357015100146906</v>
+        <v>0.3321529661351205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5075437525075192</v>
+        <v>0.504805087830472</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5043121404003219</v>
+        <v>0.4966924493301741</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.620751902502949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.558326915360654</v>
+        <v>3.558326915360663</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3597516162269871</v>
@@ -749,7 +749,7 @@
         <v>0.2059800808879303</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1694478391333069</v>
+        <v>0.1694478391333073</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7918646161263948</v>
+        <v>0.5184154861831352</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.404294454056199</v>
+        <v>4.787605206591931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.120024346822884</v>
+        <v>1.616316272473853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.355699292876733</v>
+        <v>-3.220958767201632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01476118375331993</v>
+        <v>0.01612967912799607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1003085496819045</v>
+        <v>0.08927682469301501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03993760819794415</v>
+        <v>0.03061501412884659</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1310356161977469</v>
+        <v>-0.1295160393929312</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.01261275535233</v>
+        <v>15.21272287605248</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.93538880825723</v>
+        <v>20.85741895925478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.25862249060913</v>
+        <v>17.93299375327317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.449017855109613</v>
+        <v>9.855238515406104</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.817759970809159</v>
+        <v>0.8810820559685284</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4896101878740852</v>
+        <v>0.4625765255712033</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4219672062730138</v>
+        <v>0.4305343860606088</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5560103114459201</v>
+        <v>0.5480654405313146</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.392449670316243</v>
+        <v>-1.577651251105788</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.30023618725926</v>
+        <v>-6.582833012040114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.869675561458308</v>
+        <v>-8.478135681051164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.17274266899351</v>
+        <v>-11.94977026184473</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1033926806160615</v>
+        <v>-0.0693881523469583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1171225479221399</v>
+        <v>-0.119498578608149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1957034843135312</v>
+        <v>-0.1754803453105145</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3629626795072265</v>
+        <v>-0.3812275619714997</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.7174680925169</v>
+        <v>16.04156491344227</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.796075190779018</v>
+        <v>10.28709932983782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.506892189651</v>
+        <v>11.45287001915843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.649138349542428</v>
+        <v>2.989231574300421</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7421403041980238</v>
+        <v>0.7797098957125549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2023611513978892</v>
+        <v>0.2109593584304291</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2616719485579172</v>
+        <v>0.280591914373678</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1433723742570042</v>
+        <v>0.1236329556180104</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.09272743699804187</v>
+        <v>-0.06460606674140379</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.221813850333074</v>
+        <v>1.452972874391333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.467233616137587</v>
+        <v>9.192665913113855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.92164104800734</v>
+        <v>-7.317388232190913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003826986039744866</v>
+        <v>-0.0006920670061071839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02019215724987476</v>
+        <v>0.02610649921873651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2239172171892435</v>
+        <v>0.2184973870118344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2746678955924626</v>
+        <v>-0.257921490531777</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.897220818824367</v>
+        <v>8.452467500343225</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.4784484498856</v>
+        <v>11.81228788800426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.40199440171897</v>
+        <v>19.45550966252135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.055748206612953</v>
+        <v>1.869718274598991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4455968756531672</v>
+        <v>0.4284030974732858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.217924356930049</v>
+        <v>0.2292011402890081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5232240498481137</v>
+        <v>0.5214010136216197</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04535014308997846</v>
+        <v>0.0691020841394573</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.06725546863152468</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4992484603546051</v>
+        <v>0.4992484603546049</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.893187372709559</v>
+        <v>-2.847685658755981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8465743350958377</v>
+        <v>-0.9401016171730889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.385848189935002</v>
+        <v>-2.75274515706871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.008168941880789</v>
+        <v>5.303781092413443</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1081458602598773</v>
+        <v>-0.1175793182985463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01629360293508033</v>
+        <v>-0.01785534390763705</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07317402408186763</v>
+        <v>-0.06069968218600213</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2005471261901983</v>
+        <v>0.209487794718565</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.0600099808759</v>
+        <v>10.10480978370533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.52301374234881</v>
+        <v>11.56270728938112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.89283156298251</v>
+        <v>9.121469240668107</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.38444271097098</v>
+        <v>15.18202802096468</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5671386581111905</v>
+        <v>0.5851594415704418</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2415055818118791</v>
+        <v>0.2384448019303003</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2226913849890015</v>
+        <v>0.2251781757886016</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8716487463809917</v>
+        <v>0.8602833652486143</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.8297657506081135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.61861796709903</v>
+        <v>10.61861796709901</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4633441417356728</v>
@@ -1149,7 +1149,7 @@
         <v>0.02207486315418576</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4473730032589746</v>
+        <v>0.4473730032589739</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.162737634217545</v>
+        <v>0.3038966880809394</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.77809440186702</v>
+        <v>-11.87708692410244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-8.019806489650721</v>
+        <v>-8.279874346674085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.832954723981234</v>
+        <v>-5.038847337736264</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05152587008972566</v>
+        <v>0.01040185545973081</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2154085170223748</v>
+        <v>-0.217142977537506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1804720329845614</v>
+        <v>-0.1837306886793612</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08482300201527095</v>
+        <v>-0.1300455974282239</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.18714819462917</v>
+        <v>14.15030962935403</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.871324850462129</v>
+        <v>5.785741644393756</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.590557946932524</v>
+        <v>9.029031321423252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.92973752115949</v>
+        <v>21.06487062979069</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.281834290089353</v>
+        <v>1.228821063079124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1484064944630185</v>
+        <v>0.1478501697260754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3216083065368246</v>
+        <v>0.2983589266096792</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.451608711383157</v>
+        <v>1.532131479199592</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.248344217049511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.0379512507103</v>
+        <v>4.037951250710306</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1963299520877336</v>
@@ -1249,7 +1249,7 @@
         <v>0.1260397789256757</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1690278431140993</v>
+        <v>0.1690278431140995</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.08350004765613</v>
+        <v>1.733824897339617</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5523923898563983</v>
+        <v>-0.5828678373668208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.582018926821339</v>
+        <v>2.635235606101112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.642528734584489</v>
+        <v>1.642713047122124</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.09287076330449415</v>
+        <v>0.07928870850073656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.01060280896608094</v>
+        <v>-0.01083776025060329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0619418797243815</v>
+        <v>0.06135940818433477</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.06286922270624833</v>
+        <v>0.06469517774515272</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.044384049370836</v>
+        <v>6.578190887127768</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.785904432286365</v>
+        <v>4.829716886720362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.967582073905259</v>
+        <v>8.13887492339351</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.272572960628968</v>
+        <v>6.42879058378178</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3463997157571767</v>
+        <v>0.320905547980125</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0952945519916106</v>
+        <v>0.09625014398348572</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2001281871628984</v>
+        <v>0.2055441140043782</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2800963871769787</v>
+        <v>0.2888743811931124</v>
       </c>
     </row>
     <row r="25">
